--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2530337333858</v>
+        <v>28.878682</v>
       </c>
       <c r="H2">
-        <v>15.2530337333858</v>
+        <v>86.63604599999999</v>
       </c>
       <c r="I2">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="J2">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>104.046773161689</v>
+        <v>234.8193209535879</v>
       </c>
       <c r="R2">
-        <v>104.046773161689</v>
+        <v>2113.373888582292</v>
       </c>
       <c r="S2">
-        <v>0.003485158184757288</v>
+        <v>0.006227364512776771</v>
       </c>
       <c r="T2">
-        <v>0.003485158184757288</v>
+        <v>0.006227364512776772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2530337333858</v>
+        <v>28.878682</v>
       </c>
       <c r="H3">
-        <v>15.2530337333858</v>
+        <v>86.63604599999999</v>
       </c>
       <c r="I3">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="J3">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>3701.526494870837</v>
+        <v>7028.38962339989</v>
       </c>
       <c r="R3">
-        <v>3701.526494870837</v>
+        <v>63255.50661059902</v>
       </c>
       <c r="S3">
-        <v>0.1239865972551383</v>
+        <v>0.1863915794704976</v>
       </c>
       <c r="T3">
-        <v>0.1239865972551383</v>
+        <v>0.1863915794704976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2530337333858</v>
+        <v>28.878682</v>
       </c>
       <c r="H4">
-        <v>15.2530337333858</v>
+        <v>86.63604599999999</v>
       </c>
       <c r="I4">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="J4">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>1347.16975354654</v>
+        <v>3001.726398669343</v>
       </c>
       <c r="R4">
-        <v>1347.16975354654</v>
+        <v>27015.53758802409</v>
       </c>
       <c r="S4">
-        <v>0.04512489479643917</v>
+        <v>0.07960522318277774</v>
       </c>
       <c r="T4">
-        <v>0.04512489479643917</v>
+        <v>0.07960522318277775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2530337333858</v>
+        <v>28.878682</v>
       </c>
       <c r="H5">
-        <v>15.2530337333858</v>
+        <v>86.63604599999999</v>
       </c>
       <c r="I5">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="J5">
-        <v>0.1868917138866265</v>
+        <v>0.2978181586389064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>426.7683606038066</v>
+        <v>965.0894348350452</v>
       </c>
       <c r="R5">
-        <v>426.7683606038066</v>
+        <v>8685.804913515407</v>
       </c>
       <c r="S5">
-        <v>0.01429506365029171</v>
+        <v>0.02559399147285423</v>
       </c>
       <c r="T5">
-        <v>0.01429506365029171</v>
+        <v>0.02559399147285423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.169089751742</v>
+        <v>45.41653666666667</v>
       </c>
       <c r="H6">
-        <v>45.169089751742</v>
+        <v>136.24961</v>
       </c>
       <c r="I6">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822938</v>
       </c>
       <c r="J6">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822937</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>308.1156258792494</v>
+        <v>369.2924871062467</v>
       </c>
       <c r="R6">
-        <v>308.1156258792494</v>
+        <v>3323.63238395622</v>
       </c>
       <c r="S6">
-        <v>0.01032066312826389</v>
+        <v>0.009793567751160704</v>
       </c>
       <c r="T6">
-        <v>0.01032066312826389</v>
+        <v>0.009793567751160704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.169089751742</v>
+        <v>45.41653666666667</v>
       </c>
       <c r="H7">
-        <v>45.169089751742</v>
+        <v>136.24961</v>
       </c>
       <c r="I7">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822938</v>
       </c>
       <c r="J7">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822937</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>10961.39859045331</v>
+        <v>11053.31313384595</v>
       </c>
       <c r="R7">
-        <v>10961.39859045331</v>
+        <v>99479.81820461359</v>
       </c>
       <c r="S7">
-        <v>0.3671637942537537</v>
+        <v>0.2931317988604802</v>
       </c>
       <c r="T7">
-        <v>0.3671637942537537</v>
+        <v>0.2931317988604802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.169089751742</v>
+        <v>45.41653666666667</v>
       </c>
       <c r="H8">
-        <v>45.169089751742</v>
+        <v>136.24961</v>
       </c>
       <c r="I8">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822938</v>
       </c>
       <c r="J8">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>3989.398605707307</v>
+        <v>4720.714645095906</v>
       </c>
       <c r="R8">
-        <v>3989.398605707307</v>
+        <v>42486.43180586316</v>
       </c>
       <c r="S8">
-        <v>0.1336291821499719</v>
+        <v>0.125192470263664</v>
       </c>
       <c r="T8">
-        <v>0.1336291821499719</v>
+        <v>0.125192470263664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.169089751742</v>
+        <v>45.41653666666667</v>
       </c>
       <c r="H9">
-        <v>45.169089751742</v>
+        <v>136.24961</v>
       </c>
       <c r="I9">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822938</v>
       </c>
       <c r="J9">
-        <v>0.5534458748310956</v>
+        <v>0.4683686506822937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>1263.797007222521</v>
+        <v>1517.763854451476</v>
       </c>
       <c r="R9">
-        <v>1263.797007222521</v>
+        <v>13659.87469006328</v>
       </c>
       <c r="S9">
-        <v>0.04233223529910611</v>
+        <v>0.04025081380698878</v>
       </c>
       <c r="T9">
-        <v>0.04233223529910611</v>
+        <v>0.04025081380698878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.56178643898845</v>
+        <v>6.995916999999999</v>
       </c>
       <c r="H10">
-        <v>6.56178643898845</v>
+        <v>20.987751</v>
       </c>
       <c r="I10">
-        <v>0.08039997387905577</v>
+        <v>0.0721470293876508</v>
       </c>
       <c r="J10">
-        <v>0.08039997387905577</v>
+        <v>0.07214702938765079</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>44.7604533685987</v>
+        <v>56.88543817157799</v>
       </c>
       <c r="R10">
-        <v>44.7604533685987</v>
+        <v>511.9689435442019</v>
       </c>
       <c r="S10">
-        <v>0.001499299359996475</v>
+        <v>0.001508591190558203</v>
       </c>
       <c r="T10">
-        <v>0.001499299359996475</v>
+        <v>0.001508591190558203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.56178643898845</v>
+        <v>6.995916999999999</v>
       </c>
       <c r="H11">
-        <v>6.56178643898845</v>
+        <v>20.987751</v>
       </c>
       <c r="I11">
-        <v>0.08039997387905577</v>
+        <v>0.0721470293876508</v>
       </c>
       <c r="J11">
-        <v>0.08039997387905577</v>
+        <v>0.07214702938765079</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>1592.380032861071</v>
+        <v>1702.641084830911</v>
       </c>
       <c r="R11">
-        <v>1592.380032861071</v>
+        <v>15323.7697634782</v>
       </c>
       <c r="S11">
-        <v>0.05333847591934063</v>
+        <v>0.04515372341004016</v>
       </c>
       <c r="T11">
-        <v>0.05333847591934063</v>
+        <v>0.04515372341004016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.56178643898845</v>
+        <v>6.995916999999999</v>
       </c>
       <c r="H12">
-        <v>6.56178643898845</v>
+        <v>20.987751</v>
       </c>
       <c r="I12">
-        <v>0.08039997387905577</v>
+        <v>0.0721470293876508</v>
       </c>
       <c r="J12">
-        <v>0.08039997387905577</v>
+        <v>0.07214702938765079</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>579.5463626680692</v>
+        <v>727.1740705410183</v>
       </c>
       <c r="R12">
-        <v>579.5463626680692</v>
+        <v>6544.566634869165</v>
       </c>
       <c r="S12">
-        <v>0.01941252657744749</v>
+        <v>0.01928452046922325</v>
       </c>
       <c r="T12">
-        <v>0.01941252657744749</v>
+        <v>0.01928452046922325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.56178643898845</v>
+        <v>6.995916999999999</v>
       </c>
       <c r="H13">
-        <v>6.56178643898845</v>
+        <v>20.987751</v>
       </c>
       <c r="I13">
-        <v>0.08039997387905577</v>
+        <v>0.0721470293876508</v>
       </c>
       <c r="J13">
-        <v>0.08039997387905577</v>
+        <v>0.07214702938765079</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>183.5938273099052</v>
+        <v>233.7947965798053</v>
       </c>
       <c r="R13">
-        <v>183.5938273099052</v>
+        <v>2104.153169218248</v>
       </c>
       <c r="S13">
-        <v>0.006149672022271158</v>
+        <v>0.006200194317829185</v>
       </c>
       <c r="T13">
-        <v>0.006149672022271158</v>
+        <v>0.006200194317829185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.6303757827327</v>
+        <v>15.67636333333333</v>
       </c>
       <c r="H14">
-        <v>14.6303757827327</v>
+        <v>47.02909</v>
       </c>
       <c r="I14">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="J14">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>99.79938528585133</v>
+        <v>127.4681785323533</v>
       </c>
       <c r="R14">
-        <v>99.79938528585133</v>
+        <v>1147.21360679118</v>
       </c>
       <c r="S14">
-        <v>0.003342887375490472</v>
+        <v>0.003380432275662545</v>
       </c>
       <c r="T14">
-        <v>0.003342887375490472</v>
+        <v>0.003380432275662545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.6303757827327</v>
+        <v>15.67636333333333</v>
       </c>
       <c r="H15">
-        <v>14.6303757827327</v>
+        <v>47.02909</v>
       </c>
       <c r="I15">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="J15">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>3550.423118200286</v>
+        <v>3815.256852256849</v>
       </c>
       <c r="R15">
-        <v>3550.423118200286</v>
+        <v>34337.31167031164</v>
       </c>
       <c r="S15">
-        <v>0.1189252277004144</v>
+        <v>0.101179898793629</v>
       </c>
       <c r="T15">
-        <v>0.1189252277004144</v>
+        <v>0.101179898793629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.6303757827327</v>
+        <v>15.67636333333333</v>
       </c>
       <c r="H16">
-        <v>14.6303757827327</v>
+        <v>47.02909</v>
       </c>
       <c r="I16">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="J16">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>1292.17571284701</v>
+        <v>1629.442564338594</v>
       </c>
       <c r="R16">
-        <v>1292.17571284701</v>
+        <v>14664.98307904735</v>
       </c>
       <c r="S16">
-        <v>0.04328281046039735</v>
+        <v>0.04321251232463841</v>
       </c>
       <c r="T16">
-        <v>0.04328281046039735</v>
+        <v>0.04321251232463842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.6303757827327</v>
+        <v>15.67636333333333</v>
       </c>
       <c r="H17">
-        <v>14.6303757827327</v>
+        <v>47.02909</v>
       </c>
       <c r="I17">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="J17">
-        <v>0.1792624374032222</v>
+        <v>0.161666161291149</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>409.3468615458507</v>
+        <v>523.8844566949244</v>
       </c>
       <c r="R17">
-        <v>409.3468615458507</v>
+        <v>4714.960110254319</v>
       </c>
       <c r="S17">
-        <v>0.01371151186691999</v>
+        <v>0.01389331789721907</v>
       </c>
       <c r="T17">
-        <v>0.01371151186691999</v>
+        <v>0.01389331789721907</v>
       </c>
     </row>
   </sheetData>
